--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H2">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I2">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J2">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.30973314886722</v>
+        <v>3.403666</v>
       </c>
       <c r="N2">
-        <v>3.30973314886722</v>
+        <v>10.210998</v>
       </c>
       <c r="O2">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437772</v>
       </c>
       <c r="P2">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437774</v>
       </c>
       <c r="Q2">
-        <v>169.1320021037379</v>
+        <v>174.4264654696807</v>
       </c>
       <c r="R2">
-        <v>169.1320021037379</v>
+        <v>1569.838189227126</v>
       </c>
       <c r="S2">
-        <v>0.01341447502699072</v>
+        <v>0.01275159111850179</v>
       </c>
       <c r="T2">
-        <v>0.01341447502699072</v>
+        <v>0.01275159111850179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H3">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I3">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J3">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.9345386501052</v>
+        <v>13.03556133333333</v>
       </c>
       <c r="N3">
-        <v>12.9345386501052</v>
+        <v>39.106684</v>
       </c>
       <c r="O3">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="P3">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="Q3">
-        <v>660.9730512350245</v>
+        <v>668.0287927154342</v>
       </c>
       <c r="R3">
-        <v>660.9730512350245</v>
+        <v>6012.259134438908</v>
       </c>
       <c r="S3">
-        <v>0.05242417980641958</v>
+        <v>0.04883679777123217</v>
       </c>
       <c r="T3">
-        <v>0.05242417980641958</v>
+        <v>0.04883679777123217</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H4">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I4">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J4">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.85763474053745</v>
+        <v>6.962835000000001</v>
       </c>
       <c r="N4">
-        <v>6.85763474053745</v>
+        <v>20.888505</v>
       </c>
       <c r="O4">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="P4">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="Q4">
-        <v>350.4347453994023</v>
+        <v>356.821938080465</v>
       </c>
       <c r="R4">
-        <v>350.4347453994023</v>
+        <v>3211.397442724185</v>
       </c>
       <c r="S4">
-        <v>0.02779425586097428</v>
+        <v>0.02608576309943262</v>
       </c>
       <c r="T4">
-        <v>0.02779425586097428</v>
+        <v>0.02608576309943262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H5">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I5">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J5">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.61298819800993</v>
+        <v>6.129566999999999</v>
       </c>
       <c r="N5">
-        <v>5.61298819800993</v>
+        <v>18.388701</v>
       </c>
       <c r="O5">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="P5">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="Q5">
-        <v>286.8315628524277</v>
+        <v>314.119748139093</v>
       </c>
       <c r="R5">
-        <v>286.8315628524277</v>
+        <v>2827.077733251836</v>
       </c>
       <c r="S5">
-        <v>0.02274965582490183</v>
+        <v>0.02296398416221264</v>
       </c>
       <c r="T5">
-        <v>0.02274965582490183</v>
+        <v>0.02296398416221265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.1014013808408</v>
+        <v>51.24664566666667</v>
       </c>
       <c r="H6">
-        <v>51.1014013808408</v>
+        <v>153.739937</v>
       </c>
       <c r="I6">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="J6">
-        <v>0.1533203232873766</v>
+        <v>0.1518741212000517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.113596899927879</v>
+        <v>11.00674566666667</v>
       </c>
       <c r="N6">
-        <v>9.113596899927879</v>
+        <v>33.02023699999999</v>
       </c>
       <c r="O6">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="P6">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="Q6">
-        <v>465.7175732064009</v>
+        <v>564.0587951227853</v>
       </c>
       <c r="R6">
-        <v>465.7175732064009</v>
+        <v>5076.529156105068</v>
       </c>
       <c r="S6">
-        <v>0.03693775676809017</v>
+        <v>0.04123598504867244</v>
       </c>
       <c r="T6">
-        <v>0.03693775676809017</v>
+        <v>0.04123598504867244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>135.345528577915</v>
+        <v>135.746788</v>
       </c>
       <c r="H7">
-        <v>135.345528577915</v>
+        <v>407.240364</v>
       </c>
       <c r="I7">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J7">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.30973314886722</v>
+        <v>3.403666</v>
       </c>
       <c r="N7">
-        <v>3.30973314886722</v>
+        <v>10.210998</v>
       </c>
       <c r="O7">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437772</v>
       </c>
       <c r="P7">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437774</v>
       </c>
       <c r="Q7">
-        <v>447.9575824852809</v>
+        <v>462.036726924808</v>
       </c>
       <c r="R7">
-        <v>447.9575824852809</v>
+        <v>4158.330542323272</v>
       </c>
       <c r="S7">
-        <v>0.03552914722616607</v>
+        <v>0.03377757731667235</v>
       </c>
       <c r="T7">
-        <v>0.03552914722616607</v>
+        <v>0.03377757731667235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.345528577915</v>
+        <v>135.746788</v>
       </c>
       <c r="H8">
-        <v>135.345528577915</v>
+        <v>407.240364</v>
       </c>
       <c r="I8">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J8">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.9345386501052</v>
+        <v>13.03556133333333</v>
       </c>
       <c r="N8">
-        <v>12.9345386501052</v>
+        <v>39.106684</v>
       </c>
       <c r="O8">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="P8">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="Q8">
-        <v>1750.631970509959</v>
+        <v>1769.535580776997</v>
       </c>
       <c r="R8">
-        <v>1750.631970509959</v>
+        <v>15925.82022699298</v>
       </c>
       <c r="S8">
-        <v>0.1388489969831581</v>
+        <v>0.1293633631510528</v>
       </c>
       <c r="T8">
-        <v>0.1388489969831581</v>
+        <v>0.1293633631510528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>135.345528577915</v>
+        <v>135.746788</v>
       </c>
       <c r="H9">
-        <v>135.345528577915</v>
+        <v>407.240364</v>
       </c>
       <c r="I9">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J9">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.85763474053745</v>
+        <v>6.962835000000001</v>
       </c>
       <c r="N9">
-        <v>6.85763474053745</v>
+        <v>20.888505</v>
       </c>
       <c r="O9">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="P9">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="Q9">
-        <v>928.1501987523141</v>
+        <v>945.1824866239803</v>
       </c>
       <c r="R9">
-        <v>928.1501987523141</v>
+        <v>8506.642379615821</v>
       </c>
       <c r="S9">
-        <v>0.07361497237419753</v>
+        <v>0.06909834794475497</v>
       </c>
       <c r="T9">
-        <v>0.07361497237419753</v>
+        <v>0.06909834794475497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.345528577915</v>
+        <v>135.746788</v>
       </c>
       <c r="H10">
-        <v>135.345528577915</v>
+        <v>407.240364</v>
       </c>
       <c r="I10">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J10">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.61298819800993</v>
+        <v>6.129566999999999</v>
       </c>
       <c r="N10">
-        <v>5.61298819800993</v>
+        <v>18.388701</v>
       </c>
       <c r="O10">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="P10">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="Q10">
-        <v>759.6928545612525</v>
+        <v>832.0690320807959</v>
       </c>
       <c r="R10">
-        <v>759.6928545612525</v>
+        <v>7488.621288727163</v>
       </c>
       <c r="S10">
-        <v>0.06025400692321129</v>
+        <v>0.0608290952344394</v>
       </c>
       <c r="T10">
-        <v>0.06025400692321129</v>
+        <v>0.0608290952344394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>135.345528577915</v>
+        <v>135.746788</v>
       </c>
       <c r="H11">
-        <v>135.345528577915</v>
+        <v>407.240364</v>
       </c>
       <c r="I11">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734909</v>
       </c>
       <c r="J11">
-        <v>0.4060792783825092</v>
+        <v>0.4022980209734908</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.113596899927879</v>
+        <v>11.00674566666667</v>
       </c>
       <c r="N11">
-        <v>9.113596899927879</v>
+        <v>33.02023699999999</v>
       </c>
       <c r="O11">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="P11">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="Q11">
-        <v>1233.484589666786</v>
+        <v>1494.130370582919</v>
       </c>
       <c r="R11">
-        <v>1233.484589666786</v>
+        <v>13447.17333524627</v>
       </c>
       <c r="S11">
-        <v>0.09783215487577621</v>
+        <v>0.1092296373265713</v>
       </c>
       <c r="T11">
-        <v>0.09783215487577621</v>
+        <v>0.1092296373265713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.45780735488511</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H12">
-        <v>67.45780735488511</v>
+        <v>203.189987</v>
       </c>
       <c r="I12">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J12">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.30973314886722</v>
+        <v>3.403666</v>
       </c>
       <c r="N12">
-        <v>3.30973314886722</v>
+        <v>10.210998</v>
       </c>
       <c r="O12">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437772</v>
       </c>
       <c r="P12">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437774</v>
       </c>
       <c r="Q12">
-        <v>223.2673411523622</v>
+        <v>230.5302834307807</v>
       </c>
       <c r="R12">
-        <v>223.2673411523622</v>
+        <v>2074.772550877026</v>
       </c>
       <c r="S12">
-        <v>0.01770814591548425</v>
+        <v>0.01685310716367533</v>
       </c>
       <c r="T12">
-        <v>0.01770814591548425</v>
+        <v>0.01685310716367533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.45780735488511</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H13">
-        <v>67.45780735488511</v>
+        <v>203.189987</v>
       </c>
       <c r="I13">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J13">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9345386501052</v>
+        <v>13.03556133333333</v>
       </c>
       <c r="N13">
-        <v>12.9345386501052</v>
+        <v>39.106684</v>
       </c>
       <c r="O13">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="P13">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="Q13">
-        <v>872.5356164831122</v>
+        <v>882.8985126192342</v>
       </c>
       <c r="R13">
-        <v>872.5356164831122</v>
+        <v>7946.086613573108</v>
       </c>
       <c r="S13">
-        <v>0.06920397731881386</v>
+        <v>0.06454502647713647</v>
       </c>
       <c r="T13">
-        <v>0.06920397731881386</v>
+        <v>0.06454502647713647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.45780735488511</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H14">
-        <v>67.45780735488511</v>
+        <v>203.189987</v>
       </c>
       <c r="I14">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J14">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.85763474053745</v>
+        <v>6.962835000000001</v>
       </c>
       <c r="N14">
-        <v>6.85763474053745</v>
+        <v>20.888505</v>
       </c>
       <c r="O14">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="P14">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="Q14">
-        <v>462.6010032373428</v>
+        <v>471.5927843777151</v>
       </c>
       <c r="R14">
-        <v>462.6010032373428</v>
+        <v>4244.335059399436</v>
       </c>
       <c r="S14">
-        <v>0.03669057025400777</v>
+        <v>0.03447618080563409</v>
       </c>
       <c r="T14">
-        <v>0.03669057025400777</v>
+        <v>0.03447618080563409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.45780735488511</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H15">
-        <v>67.45780735488511</v>
+        <v>203.189987</v>
       </c>
       <c r="I15">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J15">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.61298819800993</v>
+        <v>6.129566999999999</v>
       </c>
       <c r="N15">
-        <v>5.61298819800993</v>
+        <v>18.388701</v>
       </c>
       <c r="O15">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="P15">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="Q15">
-        <v>378.6398765465975</v>
+        <v>415.1555463485429</v>
       </c>
       <c r="R15">
-        <v>378.6398765465975</v>
+        <v>3736.399917136886</v>
       </c>
       <c r="S15">
-        <v>0.03003130752890748</v>
+        <v>0.03035028981043613</v>
       </c>
       <c r="T15">
-        <v>0.03003130752890748</v>
+        <v>0.03035028981043613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.45780735488511</v>
+        <v>67.72999566666667</v>
       </c>
       <c r="H16">
-        <v>67.45780735488511</v>
+        <v>203.189987</v>
       </c>
       <c r="I16">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="J16">
-        <v>0.202394700584205</v>
+        <v>0.2007240364114038</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.113596899927879</v>
+        <v>11.00674566666667</v>
       </c>
       <c r="N16">
-        <v>9.113596899927879</v>
+        <v>33.02023699999999</v>
       </c>
       <c r="O16">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="P16">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="Q16">
-        <v>614.783263985413</v>
+        <v>745.4868363074354</v>
       </c>
       <c r="R16">
-        <v>614.783263985413</v>
+        <v>6709.381526766918</v>
       </c>
       <c r="S16">
-        <v>0.04876069956699165</v>
+        <v>0.05449943215452175</v>
       </c>
       <c r="T16">
-        <v>0.04876069956699165</v>
+        <v>0.05449943215452174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.7271789344303</v>
+        <v>53.62208933333334</v>
       </c>
       <c r="H17">
-        <v>52.7271789344303</v>
+        <v>160.866268</v>
       </c>
       <c r="I17">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="J17">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.30973314886722</v>
+        <v>3.403666</v>
       </c>
       <c r="N17">
-        <v>3.30973314886722</v>
+        <v>10.210998</v>
       </c>
       <c r="O17">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437772</v>
       </c>
       <c r="P17">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437774</v>
       </c>
       <c r="Q17">
-        <v>174.5128919655373</v>
+        <v>182.5116823128294</v>
       </c>
       <c r="R17">
-        <v>174.5128919655373</v>
+        <v>1642.605140815464</v>
       </c>
       <c r="S17">
-        <v>0.01384125299790259</v>
+        <v>0.01334266758737731</v>
       </c>
       <c r="T17">
-        <v>0.01384125299790259</v>
+        <v>0.01334266758737731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.7271789344303</v>
+        <v>53.62208933333334</v>
       </c>
       <c r="H18">
-        <v>52.7271789344303</v>
+        <v>160.866268</v>
       </c>
       <c r="I18">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="J18">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.9345386501052</v>
+        <v>13.03556133333333</v>
       </c>
       <c r="N18">
-        <v>12.9345386501052</v>
+        <v>39.106684</v>
       </c>
       <c r="O18">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="P18">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="Q18">
-        <v>682.0017338384014</v>
+        <v>698.9940343261459</v>
       </c>
       <c r="R18">
-        <v>682.0017338384014</v>
+        <v>6290.946308935313</v>
       </c>
       <c r="S18">
-        <v>0.05409204120535514</v>
+        <v>0.05110053738690448</v>
       </c>
       <c r="T18">
-        <v>0.05409204120535514</v>
+        <v>0.05110053738690447</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.7271789344303</v>
+        <v>53.62208933333334</v>
       </c>
       <c r="H19">
-        <v>52.7271789344303</v>
+        <v>160.866268</v>
       </c>
       <c r="I19">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="J19">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.85763474053745</v>
+        <v>6.962835000000001</v>
       </c>
       <c r="N19">
-        <v>6.85763474053745</v>
+        <v>20.888505</v>
       </c>
       <c r="O19">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="P19">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="Q19">
-        <v>361.5837340312836</v>
+        <v>373.3617603832601</v>
       </c>
       <c r="R19">
-        <v>361.5837340312836</v>
+        <v>3360.255843449341</v>
       </c>
       <c r="S19">
-        <v>0.02867852275144036</v>
+        <v>0.02729492049770932</v>
       </c>
       <c r="T19">
-        <v>0.02867852275144036</v>
+        <v>0.02729492049770932</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.7271789344303</v>
+        <v>53.62208933333334</v>
       </c>
       <c r="H20">
-        <v>52.7271789344303</v>
+        <v>160.866268</v>
       </c>
       <c r="I20">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="J20">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.61298819800993</v>
+        <v>6.129566999999999</v>
       </c>
       <c r="N20">
-        <v>5.61298819800993</v>
+        <v>18.388701</v>
       </c>
       <c r="O20">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="P20">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="Q20">
-        <v>295.9570330733151</v>
+        <v>328.680189248652</v>
       </c>
       <c r="R20">
-        <v>295.9570330733151</v>
+        <v>2958.121703237868</v>
       </c>
       <c r="S20">
-        <v>0.02347343010099984</v>
+        <v>0.02402843726016523</v>
       </c>
       <c r="T20">
-        <v>0.02347343010099984</v>
+        <v>0.02402843726016523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.7271789344303</v>
+        <v>53.62208933333334</v>
       </c>
       <c r="H21">
-        <v>52.7271789344303</v>
+        <v>160.866268</v>
       </c>
       <c r="I21">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="J21">
-        <v>0.1581981687744703</v>
+        <v>0.1589139657526463</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.113596899927879</v>
+        <v>11.00674566666667</v>
       </c>
       <c r="N21">
-        <v>9.113596899927879</v>
+        <v>33.02023699999999</v>
       </c>
       <c r="O21">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="P21">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="Q21">
-        <v>480.5342544787666</v>
+        <v>590.2046994072796</v>
       </c>
       <c r="R21">
-        <v>480.5342544787666</v>
+        <v>5311.842294665516</v>
       </c>
       <c r="S21">
-        <v>0.03811292171877242</v>
+        <v>0.04314740302048996</v>
       </c>
       <c r="T21">
-        <v>0.03811292171877242</v>
+        <v>0.04314740302048995</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>26.6663724925459</v>
+        <v>29.08290733333333</v>
       </c>
       <c r="H22">
-        <v>26.6663724925459</v>
+        <v>87.248722</v>
       </c>
       <c r="I22">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240746</v>
       </c>
       <c r="J22">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240744</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.30973314886722</v>
+        <v>3.403666</v>
       </c>
       <c r="N22">
-        <v>3.30973314886722</v>
+        <v>10.210998</v>
       </c>
       <c r="O22">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437772</v>
       </c>
       <c r="P22">
-        <v>0.08749313032589451</v>
+        <v>0.08396157961437774</v>
       </c>
       <c r="Q22">
-        <v>88.25857699862016</v>
+        <v>98.98850287161733</v>
       </c>
       <c r="R22">
-        <v>88.25857699862016</v>
+        <v>890.896525844556</v>
       </c>
       <c r="S22">
-        <v>0.007000109159350875</v>
+        <v>0.007236636428150948</v>
       </c>
       <c r="T22">
-        <v>0.007000109159350875</v>
+        <v>0.007236636428150948</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>26.6663724925459</v>
+        <v>29.08290733333333</v>
       </c>
       <c r="H23">
-        <v>26.6663724925459</v>
+        <v>87.248722</v>
       </c>
       <c r="I23">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240746</v>
       </c>
       <c r="J23">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240744</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.9345386501052</v>
+        <v>13.03556133333333</v>
       </c>
       <c r="N23">
-        <v>12.9345386501052</v>
+        <v>39.106684</v>
       </c>
       <c r="O23">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="P23">
-        <v>0.3419258365908746</v>
+        <v>0.3215610229401976</v>
       </c>
       <c r="Q23">
-        <v>344.9172256629371</v>
+        <v>379.1120222953165</v>
       </c>
       <c r="R23">
-        <v>344.9172256629371</v>
+        <v>3412.008200657848</v>
       </c>
       <c r="S23">
-        <v>0.02735664127712785</v>
+        <v>0.02771529815387173</v>
       </c>
       <c r="T23">
-        <v>0.02735664127712785</v>
+        <v>0.02771529815387172</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>26.6663724925459</v>
+        <v>29.08290733333333</v>
       </c>
       <c r="H24">
-        <v>26.6663724925459</v>
+        <v>87.248722</v>
       </c>
       <c r="I24">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240746</v>
       </c>
       <c r="J24">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240744</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.85763474053745</v>
+        <v>6.962835000000001</v>
       </c>
       <c r="N24">
-        <v>6.85763474053745</v>
+        <v>20.888505</v>
       </c>
       <c r="O24">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="P24">
-        <v>0.1812822675104722</v>
+        <v>0.171759104798848</v>
       </c>
       <c r="Q24">
-        <v>182.868242408995</v>
+        <v>202.4994850822901</v>
       </c>
       <c r="R24">
-        <v>182.868242408995</v>
+        <v>1822.49536574061</v>
       </c>
       <c r="S24">
-        <v>0.01450394626985222</v>
+        <v>0.01480389245131703</v>
       </c>
       <c r="T24">
-        <v>0.01450394626985222</v>
+        <v>0.01480389245131703</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>26.6663724925459</v>
+        <v>29.08290733333333</v>
       </c>
       <c r="H25">
-        <v>26.6663724925459</v>
+        <v>87.248722</v>
       </c>
       <c r="I25">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240746</v>
       </c>
       <c r="J25">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240744</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.61298819800993</v>
+        <v>6.129566999999999</v>
       </c>
       <c r="N25">
-        <v>5.61298819800993</v>
+        <v>18.388701</v>
       </c>
       <c r="O25">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="P25">
-        <v>0.1483799103544865</v>
+        <v>0.1512040628170221</v>
       </c>
       <c r="Q25">
-        <v>149.6780340843968</v>
+        <v>178.265629054458</v>
       </c>
       <c r="R25">
-        <v>149.6780340843968</v>
+        <v>1604.390661490122</v>
       </c>
       <c r="S25">
-        <v>0.01187150997646607</v>
+        <v>0.01303225634976873</v>
       </c>
       <c r="T25">
-        <v>0.01187150997646607</v>
+        <v>0.01303225634976873</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.6663724925459</v>
+        <v>29.08290733333333</v>
       </c>
       <c r="H26">
-        <v>26.6663724925459</v>
+        <v>87.248722</v>
       </c>
       <c r="I26">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240746</v>
       </c>
       <c r="J26">
-        <v>0.0800075289714388</v>
+        <v>0.08618985566240744</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.113596899927879</v>
+        <v>11.00674566666667</v>
       </c>
       <c r="N26">
-        <v>9.113596899927879</v>
+        <v>33.02023699999999</v>
       </c>
       <c r="O26">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="P26">
-        <v>0.2409188552182722</v>
+        <v>0.2715142298295545</v>
       </c>
       <c r="Q26">
-        <v>243.0265696803884</v>
+        <v>320.1081642652348</v>
       </c>
       <c r="R26">
-        <v>243.0265696803884</v>
+        <v>2880.973478387114</v>
       </c>
       <c r="S26">
-        <v>0.01927532228864179</v>
+        <v>0.02340177227929903</v>
       </c>
       <c r="T26">
-        <v>0.01927532228864179</v>
+        <v>0.02340177227929902</v>
       </c>
     </row>
   </sheetData>
